--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\revan\Videos\N8N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D295968-C362-4C11-8F51-140037581A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D41770-0EC1-49CD-99C2-22C9885DEC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A8EF771E-6C41-48FA-8835-29E1B749273C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>TeleMeetGenerator.json</t>
+  </si>
+  <si>
+    <t>Automated Event Registration</t>
+  </si>
+  <si>
+    <t>This workflow automates the entire process of registering a user for an event, sending a confirmation, and providing a calendar invitation, all triggered by a single Google Form submission.</t>
+  </si>
+  <si>
+    <t>FormMail.json</t>
   </si>
 </sst>
 </file>
@@ -455,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3405AF90-70F3-455C-B515-1EE882459FC6}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,6 +520,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\revan\Videos\N8N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D41770-0EC1-49CD-99C2-22C9885DEC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49FED84-77C8-47BA-A273-425A67C7B8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A8EF771E-6C41-48FA-8835-29E1B749273C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>FormMail.json</t>
+  </si>
+  <si>
+    <t>The Daily News Digest Bot</t>
+  </si>
+  <si>
+    <t>The Daily News Digest Bot.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this workflow automates the entire process of news using  telegram scheduled timing and triggered message </t>
   </si>
 </sst>
 </file>
@@ -464,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3405AF90-70F3-455C-B515-1EE882459FC6}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,6 +543,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\revan\Videos\N8N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49FED84-77C8-47BA-A273-425A67C7B8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBDA261-616E-4115-9E4C-E82A9D7F68C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A8EF771E-6C41-48FA-8835-29E1B749273C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t xml:space="preserve">this workflow automates the entire process of news using  telegram scheduled timing and triggered message </t>
+  </si>
+  <si>
+    <t>RAG college</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAG college.json </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the rag bot is designed to make sure that the college rules are answered perfectly </t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -473,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3405AF90-70F3-455C-B515-1EE882459FC6}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,6 +569,39 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45899</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\revan\Videos\N8N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBDA261-616E-4115-9E4C-E82A9D7F68C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B3775D-B375-4351-AA12-A709C10A5561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A8EF771E-6C41-48FA-8835-29E1B749273C}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" xr2:uid="{A8EF771E-6C41-48FA-8835-29E1B749273C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Workshop Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this workflow is designed to send event registration and other event related things automatically </t>
+  </si>
+  <si>
+    <t>Workshop.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated Shop invoice </t>
   </si>
 </sst>
 </file>
@@ -485,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3405AF90-70F3-455C-B515-1EE882459FC6}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,6 +613,37 @@
       <c r="A8" s="1">
         <v>45900</v>
       </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\revan\Videos\N8N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B3775D-B375-4351-AA12-A709C10A5561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDD8B46-6CAD-41E7-B015-84692EA73F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" xr2:uid="{A8EF771E-6C41-48FA-8835-29E1B749273C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A8EF771E-6C41-48FA-8835-29E1B749273C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t xml:space="preserve">Automated Shop invoice </t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>the Donut Shop</t>
+  </si>
+  <si>
+    <t>details of this work flow is in the donut shop git repo</t>
+  </si>
+  <si>
+    <t>the donut shop.json</t>
   </si>
 </sst>
 </file>
@@ -131,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,12 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3405AF90-70F3-455C-B515-1EE882459FC6}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +530,7 @@
     <col min="4" max="4" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,7 +544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45895</v>
       </c>
@@ -539,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45896</v>
       </c>
@@ -553,7 +572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45897</v>
       </c>
@@ -567,7 +586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45898</v>
       </c>
@@ -581,7 +600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45899</v>
       </c>
@@ -595,7 +614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45900</v>
       </c>
@@ -609,7 +628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45900</v>
       </c>
@@ -623,7 +642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45901</v>
       </c>
@@ -637,13 +656,33 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45902</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
